--- a/excel/codifiche.xlsx
+++ b/excel/codifiche.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisie.Turcanu\Documents\GitHub\Dashboard_PAC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisie.Turcanu\Documents\GitHub\Dashboard_PAC\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132B89E2-FFDA-4E3E-92CD-5C8E56A0FE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82958B4A-6236-4CCA-90D3-FC6BE9471406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A1CEDA-2ADC-4F0B-9FB2-96AB30E61F9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A1CEDA-2ADC-4F0B-9FB2-96AB30E61F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="3" r:id="rId1"/>
@@ -404,21 +404,12 @@
     <t>CH Emerging Markets Equity Fund LA</t>
   </si>
   <si>
-    <t>CHopean Equity Fund LA</t>
-  </si>
-  <si>
-    <t>CHo Income Fund LA</t>
-  </si>
-  <si>
     <t>CH International Income Fund LHA</t>
   </si>
   <si>
     <t>CH Italian Equity Fund LA</t>
   </si>
   <si>
-    <t>CHo Bond Fund LA</t>
-  </si>
-  <si>
     <t>CH International Bond Fund LHA</t>
   </si>
   <si>
@@ -428,9 +419,6 @@
     <t>MBB US Collection LA</t>
   </si>
   <si>
-    <t>MBBopean Collection LA</t>
-  </si>
-  <si>
     <t>MBB Pacific Collection LA</t>
   </si>
   <si>
@@ -449,9 +437,6 @@
     <t>CH Spain Equity Fund LA</t>
   </si>
   <si>
-    <t>MBBo Fixed Income LA</t>
-  </si>
-  <si>
     <t>MBB Dynamic Collection LA</t>
   </si>
   <si>
@@ -464,9 +449,6 @@
     <t>MBB US Collection LHA</t>
   </si>
   <si>
-    <t>MBBopean Collection LHA</t>
-  </si>
-  <si>
     <t>MBB Pacific Collection LHA</t>
   </si>
   <si>
@@ -500,9 +482,6 @@
     <t>MBB Coupon Strategy Collection LHA</t>
   </si>
   <si>
-    <t>CHopean Equity Fund LHA</t>
-  </si>
-  <si>
     <t>CH North American Equity Fund LHA</t>
   </si>
   <si>
@@ -572,9 +551,6 @@
     <t>MBB Emerging Markets Fixed Income LHA</t>
   </si>
   <si>
-    <t>MBBopean Small Cap Equity LA</t>
-  </si>
-  <si>
     <t>MBB Global Demographic Opportunities LA</t>
   </si>
   <si>
@@ -602,12 +578,6 @@
     <t>MBB Mediolanum Fidelity Asian Coupon Selection LHA</t>
   </si>
   <si>
-    <t>MBBopean Coupon Strategy Collection LA</t>
-  </si>
-  <si>
-    <t>MBBopean Coupon Strategy Collection LHA</t>
-  </si>
-  <si>
     <t>MBB US Coupon Strategy Collection LA</t>
   </si>
   <si>
@@ -636,6 +606,36 @@
   </si>
   <si>
     <t>Mediolanum Flessibile Sviluppo Italia LA Acc</t>
+  </si>
+  <si>
+    <t>CH European Equity Fund LHA</t>
+  </si>
+  <si>
+    <t>MBB European Collection LHA</t>
+  </si>
+  <si>
+    <t>MBB European Collection LA</t>
+  </si>
+  <si>
+    <t>CH Euro Bond Fund LA</t>
+  </si>
+  <si>
+    <t>MBB Euro Fixed Income LA</t>
+  </si>
+  <si>
+    <t>MBB European Coupon Strategy Collection LA</t>
+  </si>
+  <si>
+    <t>MBB European Coupon Strategy Collection LHA</t>
+  </si>
+  <si>
+    <t>MBB European Small Cap Equity LA</t>
+  </si>
+  <si>
+    <t>CH Euro Income Fund LA</t>
+  </si>
+  <si>
+    <t>CH European Equity Fund LA</t>
   </si>
 </sst>
 </file>
@@ -998,18 +998,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481E191-FC24-40CC-BBEC-F2552ADAFD3D}">
   <dimension ref="A1:C98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K80" sqref="K80"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>88</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1053,7 +1053,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -1064,7 +1064,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>79</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>84</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1160,10 +1160,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1171,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1182,10 +1182,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>57</v>
       </c>
@@ -1193,10 +1193,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1204,10 +1204,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1215,10 +1215,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -1226,10 +1226,10 @@
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -1237,10 +1237,10 @@
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -1248,10 +1248,10 @@
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -1259,10 +1259,10 @@
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1270,10 +1270,10 @@
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1281,10 +1281,10 @@
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1295,7 +1295,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>63</v>
       </c>
@@ -1303,10 +1303,10 @@
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>87</v>
       </c>
@@ -1336,10 +1336,10 @@
         <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>27</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>89</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>74</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>75</v>
       </c>
@@ -1383,7 +1383,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>83</v>
       </c>
@@ -1391,10 +1391,10 @@
         <v>100</v>
       </c>
       <c r="C35" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -1402,10 +1402,10 @@
         <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>7</v>
       </c>
@@ -1413,10 +1413,10 @@
         <v>99</v>
       </c>
       <c r="C37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>45</v>
       </c>
@@ -1424,10 +1424,10 @@
         <v>99</v>
       </c>
       <c r="C38" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1435,10 +1435,10 @@
         <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -1446,10 +1446,10 @@
         <v>99</v>
       </c>
       <c r="C40" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>61</v>
       </c>
@@ -1457,10 +1457,10 @@
         <v>99</v>
       </c>
       <c r="C41" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>72</v>
       </c>
@@ -1468,10 +1468,10 @@
         <v>99</v>
       </c>
       <c r="C42" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1479,10 +1479,10 @@
         <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>70</v>
       </c>
@@ -1490,10 +1490,10 @@
         <v>99</v>
       </c>
       <c r="C44" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1501,10 +1501,10 @@
         <v>99</v>
       </c>
       <c r="C45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -1512,10 +1512,10 @@
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -1523,10 +1523,10 @@
         <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1534,10 +1534,10 @@
         <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1545,10 +1545,10 @@
         <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>40</v>
       </c>
@@ -1556,10 +1556,10 @@
         <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -1567,10 +1567,10 @@
         <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>24</v>
       </c>
@@ -1578,10 +1578,10 @@
         <v>99</v>
       </c>
       <c r="C52" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>62</v>
       </c>
@@ -1589,10 +1589,10 @@
         <v>100</v>
       </c>
       <c r="C53" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -1600,10 +1600,10 @@
         <v>100</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>71</v>
       </c>
@@ -1611,10 +1611,10 @@
         <v>100</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>37</v>
       </c>
@@ -1622,10 +1622,10 @@
         <v>100</v>
       </c>
       <c r="C56" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -1633,10 +1633,10 @@
         <v>100</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>36</v>
       </c>
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>21</v>
       </c>
@@ -1655,10 +1655,10 @@
         <v>99</v>
       </c>
       <c r="C59" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>22</v>
       </c>
@@ -1666,10 +1666,10 @@
         <v>99</v>
       </c>
       <c r="C60" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -1677,10 +1677,10 @@
         <v>99</v>
       </c>
       <c r="C61" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -1688,10 +1688,10 @@
         <v>99</v>
       </c>
       <c r="C62" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>81</v>
       </c>
@@ -1699,10 +1699,10 @@
         <v>99</v>
       </c>
       <c r="C63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>73</v>
       </c>
@@ -1710,10 +1710,10 @@
         <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>30</v>
       </c>
@@ -1721,10 +1721,10 @@
         <v>99</v>
       </c>
       <c r="C65" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1732,10 +1732,10 @@
         <v>99</v>
       </c>
       <c r="C66" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -1743,10 +1743,10 @@
         <v>99</v>
       </c>
       <c r="C67" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -1754,10 +1754,10 @@
         <v>99</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>93</v>
       </c>
@@ -1765,10 +1765,10 @@
         <v>100</v>
       </c>
       <c r="C69" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -1776,10 +1776,10 @@
         <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -1787,10 +1787,10 @@
         <v>99</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>3</v>
       </c>
@@ -1798,10 +1798,10 @@
         <v>99</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>52</v>
       </c>
@@ -1809,10 +1809,10 @@
         <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>65</v>
       </c>
@@ -1820,10 +1820,10 @@
         <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>41</v>
       </c>
@@ -1831,10 +1831,10 @@
         <v>99</v>
       </c>
       <c r="C75" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>42</v>
       </c>
@@ -1842,10 +1842,10 @@
         <v>99</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>34</v>
       </c>
@@ -1853,10 +1853,10 @@
         <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>49</v>
       </c>
@@ -1864,10 +1864,10 @@
         <v>99</v>
       </c>
       <c r="C78" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>64</v>
       </c>
@@ -1875,10 +1875,10 @@
         <v>99</v>
       </c>
       <c r="C79" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -1886,10 +1886,10 @@
         <v>99</v>
       </c>
       <c r="C80" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -1897,10 +1897,10 @@
         <v>99</v>
       </c>
       <c r="C81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>59</v>
       </c>
@@ -1908,10 +1908,10 @@
         <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -1919,10 +1919,10 @@
         <v>99</v>
       </c>
       <c r="C83" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -1930,10 +1930,10 @@
         <v>99</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>0</v>
       </c>
@@ -1941,10 +1941,10 @@
         <v>99</v>
       </c>
       <c r="C85" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>60</v>
       </c>
@@ -1952,10 +1952,10 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -1963,10 +1963,10 @@
         <v>99</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -1974,10 +1974,10 @@
         <v>99</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -1985,10 +1985,10 @@
         <v>99</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>25</v>
       </c>
@@ -1996,10 +1996,10 @@
         <v>99</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>55</v>
       </c>
@@ -2007,10 +2007,10 @@
         <v>99</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>69</v>
       </c>
@@ -2018,10 +2018,10 @@
         <v>99</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>6</v>
       </c>
@@ -2029,10 +2029,10 @@
         <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>56</v>
       </c>
@@ -2040,10 +2040,10 @@
         <v>101</v>
       </c>
       <c r="C94" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2051,10 +2051,10 @@
         <v>101</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2062,10 +2062,10 @@
         <v>101</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2073,10 +2073,10 @@
         <v>101</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>101</v>
       </c>
       <c r="C98" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/excel/codifiche.xlsx
+++ b/excel/codifiche.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisie.Turcanu\Documents\GitHub\Dashboard_PAC\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82958B4A-6236-4CCA-90D3-FC6BE9471406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008464E-66AA-4FA6-8972-C06323585C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A1CEDA-2ADC-4F0B-9FB2-96AB30E61F9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="3" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
   <si>
     <t>IE00BYVXRV56</t>
   </si>
@@ -317,9 +317,6 @@
     <t>ISIN</t>
   </si>
   <si>
-    <t>IE00BD6GZG34</t>
-  </si>
-  <si>
     <t>IT0005066896</t>
   </si>
   <si>
@@ -347,33 +344,6 @@
     <t>NOME</t>
   </si>
   <si>
-    <t xml:space="preserve">Mediolanum Multi Asset ESG Selection L </t>
-  </si>
-  <si>
-    <t>Mediolanum India Opportunities LA</t>
-  </si>
-  <si>
-    <t>Mediolanum Global Equity Style Selection LHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mediolanum Multi Asset ESG Selection LH </t>
-  </si>
-  <si>
-    <t>Mediolanum Global Equity Style Selection LA</t>
-  </si>
-  <si>
-    <t>Mediolanum Energy Transition L</t>
-  </si>
-  <si>
-    <t>Mediolanum Energy Transition LH</t>
-  </si>
-  <si>
-    <t>Mediolanum Future Sustainable Nutrition LHA</t>
-  </si>
-  <si>
-    <t>CH Germany Equity Fund LA</t>
-  </si>
-  <si>
     <t>CH Energy Equity Evolution LA</t>
   </si>
   <si>
@@ -389,30 +359,6 @@
     <t>CH Technology Equity Evolution LA</t>
   </si>
   <si>
-    <t>CH Liquidity US Dollar Fund LA</t>
-  </si>
-  <si>
-    <t>CH North American Equity Fund LA</t>
-  </si>
-  <si>
-    <t>CH Pacific Equity Fund LA</t>
-  </si>
-  <si>
-    <t>CH Liquidityo Fund LA</t>
-  </si>
-  <si>
-    <t>CH Emerging Markets Equity Fund LA</t>
-  </si>
-  <si>
-    <t>CH International Income Fund LHA</t>
-  </si>
-  <si>
-    <t>CH Italian Equity Fund LA</t>
-  </si>
-  <si>
-    <t>CH International Bond Fund LHA</t>
-  </si>
-  <si>
     <t>MBB Global High Yield LA</t>
   </si>
   <si>
@@ -425,27 +371,12 @@
     <t>MBB Emerging Markets Collection LA</t>
   </si>
   <si>
-    <t>MBB Circular Economy Opportunities LA</t>
-  </si>
-  <si>
-    <t>MBB Circular Economy Opportunities LHA</t>
-  </si>
-  <si>
-    <t>Mediolanum Future Sustainable Nutrition LA</t>
-  </si>
-  <si>
-    <t>CH Spain Equity Fund LA</t>
-  </si>
-  <si>
     <t>MBB Dynamic Collection LA</t>
   </si>
   <si>
     <t>MBB Equity Power Coupon Collection LA</t>
   </si>
   <si>
-    <t>CH International Equity Fund LA</t>
-  </si>
-  <si>
     <t>MBB US Collection LHA</t>
   </si>
   <si>
@@ -458,45 +389,15 @@
     <t>MBB Equity Power Coupon Collection LHA</t>
   </si>
   <si>
-    <t>MBB Mediolanum Morgan Stanley Global Selection LA</t>
-  </si>
-  <si>
-    <t>MBB Mediolanum Morgan Stanley Global Selection LHA</t>
-  </si>
-  <si>
-    <t>MBB Premium Coupon Collection LA</t>
-  </si>
-  <si>
-    <t>MBB Premium Coupon Collection LHA</t>
-  </si>
-  <si>
     <t>MBB Dynamic Collection LHA</t>
   </si>
   <si>
-    <t>MBB Mediolanum Emerging Markets Multi Asset Collection LA</t>
-  </si>
-  <si>
     <t>MBB Coupon Strategy Collection LA</t>
   </si>
   <si>
     <t>MBB Coupon Strategy Collection LHA</t>
   </si>
   <si>
-    <t>CH North American Equity Fund LHA</t>
-  </si>
-  <si>
-    <t>CH Pacific Equity Fund LHA</t>
-  </si>
-  <si>
-    <t>CH International Bond Fund LA</t>
-  </si>
-  <si>
-    <t>CH International Equity Fund LHA</t>
-  </si>
-  <si>
-    <t>CH International Income Fund LA</t>
-  </si>
-  <si>
     <t>MBB New Opportunities Collection LA</t>
   </si>
   <si>
@@ -506,18 +407,12 @@
     <t>MBB Convertible Strategy Collection LA</t>
   </si>
   <si>
-    <t>MBB Mediolanum Invesco Balanced Risk Coupon Selection LA</t>
-  </si>
-  <si>
     <t>MBB Infrastructure Opportunity Collection LA</t>
   </si>
   <si>
     <t>MBB Infrastructure Opportunity Collection LHA</t>
   </si>
   <si>
-    <t>MBB Mediolanum Carmignac Strategic Selection LA</t>
-  </si>
-  <si>
     <t>MBB Convertible Strategy Collection LHA</t>
   </si>
   <si>
@@ -527,15 +422,6 @@
     <t>MBB Socially Responsible Collection LHA</t>
   </si>
   <si>
-    <t>CH Solidity &amp; Return LA</t>
-  </si>
-  <si>
-    <t>MBB Mediolanum Innovative Thematic Opportunities LA</t>
-  </si>
-  <si>
-    <t>MBB Mediolanum Innovative Thematic Opportunities LHA</t>
-  </si>
-  <si>
     <t>MBB Chinese Road Opportunity LA</t>
   </si>
   <si>
@@ -572,12 +458,6 @@
     <t>MBB Equilibrium LHA</t>
   </si>
   <si>
-    <t>MBB Mediolanum Fidelity Asian Coupon Selection LA</t>
-  </si>
-  <si>
-    <t>MBB Mediolanum Fidelity Asian Coupon Selection LHA</t>
-  </si>
-  <si>
     <t>MBB US Coupon Strategy Collection LA</t>
   </si>
   <si>
@@ -590,36 +470,12 @@
     <t>MBB Dynamic International Value Opportunity LHA</t>
   </si>
   <si>
-    <t>Mediolanum Flessibile Futuro Sostenibile LA Acc</t>
-  </si>
-  <si>
-    <t>Mediolanum Flessibile Futuro Italia LA Acc</t>
-  </si>
-  <si>
-    <t>Mediolanum Strategia Globale Multi Bond LA Acc</t>
-  </si>
-  <si>
-    <t>Mediolanum Flessibile Strategico LA Acc</t>
-  </si>
-  <si>
-    <t>Mediolanum Strategiao High Yield LA Acc</t>
-  </si>
-  <si>
-    <t>Mediolanum Flessibile Sviluppo Italia LA Acc</t>
-  </si>
-  <si>
-    <t>CH European Equity Fund LHA</t>
-  </si>
-  <si>
     <t>MBB European Collection LHA</t>
   </si>
   <si>
     <t>MBB European Collection LA</t>
   </si>
   <si>
-    <t>CH Euro Bond Fund LA</t>
-  </si>
-  <si>
     <t>MBB Euro Fixed Income LA</t>
   </si>
   <si>
@@ -629,13 +485,163 @@
     <t>MBB European Coupon Strategy Collection LHA</t>
   </si>
   <si>
-    <t>MBB European Small Cap Equity LA</t>
-  </si>
-  <si>
-    <t>CH Euro Income Fund LA</t>
-  </si>
-  <si>
-    <t>CH European Equity Fund LA</t>
+    <t>IE00B13C3B10</t>
+  </si>
+  <si>
+    <t>IT0005066870</t>
+  </si>
+  <si>
+    <t>Mediolanum Multi Asset ESG Selection L</t>
+  </si>
+  <si>
+    <t>Mediolanum Multi Asset ESG Selection LH</t>
+  </si>
+  <si>
+    <t>Mediolanum Circular Economy Opportunities LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Circular Economy Opportunities LHA</t>
+  </si>
+  <si>
+    <t>Mediolanum Innovative Thematic Opportunities L</t>
+  </si>
+  <si>
+    <t>Mediolanum Innovative Thematic Opportunities LH</t>
+  </si>
+  <si>
+    <t>Mediolanum Flessibile Strategico LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Flessibile Futuro Italia LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Flessibile Futuro Sostenibile LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Flessibile Sviluppo Italia LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Strategia Globale Multi Bond LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Strategia Euro High Yield LA</t>
+  </si>
+  <si>
+    <t>Mediolanum Risparmio Dinamico LA</t>
+  </si>
+  <si>
+    <t>CH Emerging Markets Equity LA</t>
+  </si>
+  <si>
+    <t>CH Euro Bond LA</t>
+  </si>
+  <si>
+    <t>CH Euro Income LA</t>
+  </si>
+  <si>
+    <t>CH European Equity LA</t>
+  </si>
+  <si>
+    <t>CH European Equity LHA</t>
+  </si>
+  <si>
+    <t>CH Germany Equity LA</t>
+  </si>
+  <si>
+    <t>CH International Bond LA</t>
+  </si>
+  <si>
+    <t>CH International Bond LHA</t>
+  </si>
+  <si>
+    <t>CH International Equity LA</t>
+  </si>
+  <si>
+    <t>CH International Equity LHA</t>
+  </si>
+  <si>
+    <t>CH International Income LA</t>
+  </si>
+  <si>
+    <t>CH International Income LHA</t>
+  </si>
+  <si>
+    <t>CH Italian Equity LA</t>
+  </si>
+  <si>
+    <t>CH Liquidity Euro LA</t>
+  </si>
+  <si>
+    <t>CH Liquidity US Dollar LA</t>
+  </si>
+  <si>
+    <t>CH North American Equity LA</t>
+  </si>
+  <si>
+    <t>CH North American Equity LHA</t>
+  </si>
+  <si>
+    <t>CH Pacific Equity LA</t>
+  </si>
+  <si>
+    <t>CH Pacific Equity LHA</t>
+  </si>
+  <si>
+    <t>CH Solidity &amp; Return SA</t>
+  </si>
+  <si>
+    <t>CH Spain Equity LA</t>
+  </si>
+  <si>
+    <t>MBB Carmignac Strategic Selection LA</t>
+  </si>
+  <si>
+    <t>MBB Emerging Markets Multi Asset Collection LA</t>
+  </si>
+  <si>
+    <t>MBB Energy Transition L</t>
+  </si>
+  <si>
+    <t>MBB Energy Transition LH</t>
+  </si>
+  <si>
+    <t>MBB European Small Cap Equity</t>
+  </si>
+  <si>
+    <t>MBB Fidelity Asian Coupon Selection LA</t>
+  </si>
+  <si>
+    <t>MBB Fidelity Asian Coupon Selection LHA</t>
+  </si>
+  <si>
+    <t>MBB Future Sustainable Nutrition L</t>
+  </si>
+  <si>
+    <t>MBB Future Sustainable Nutrition LH</t>
+  </si>
+  <si>
+    <t>MBB Global Equity Style Selection L</t>
+  </si>
+  <si>
+    <t>MBB Global Equity Style Selection LH</t>
+  </si>
+  <si>
+    <t>MBB India Opportunities L</t>
+  </si>
+  <si>
+    <t>MBB Invesco Balanced Risk Coupon Selection LA</t>
+  </si>
+  <si>
+    <t>MBB Morgan Stanley Global Selection L</t>
+  </si>
+  <si>
+    <t>MBB Morgan Stanley Global Selection LH</t>
+  </si>
+  <si>
+    <t>MBB Premium Coupon Collection L</t>
+  </si>
+  <si>
+    <t>MBB Premium Coupon Collection LH</t>
   </si>
 </sst>
 </file>
@@ -995,1041 +1001,1039 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4481E191-FC24-40CC-BBEC-F2552ADAFD3D}">
-  <dimension ref="A1:C98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B7343-E6BD-4A0B-831B-291FCE4ABACD}">
+  <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>99</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C17" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s">
         <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
         <v>99</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
         <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
         <v>99</v>
       </c>
       <c r="C23" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="B25" t="s">
         <v>99</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>83</v>
       </c>
       <c r="B26" t="s">
         <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>103</v>
+        <v>184</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
         <v>99</v>
       </c>
       <c r="C27" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C38" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C42" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C43" t="s">
-        <v>138</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C54" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C55" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C59" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C60" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C62" t="s">
-        <v>156</v>
+        <v>115</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C66" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C67" t="s">
-        <v>161</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
+        <v>123</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>124</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C73" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
-        <v>197</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C78" t="s">
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C79" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>113</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>195</v>
+        <v>140</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C90" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B93" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,54 +2041,65 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C97" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>150</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/excel/codifiche.xlsx
+++ b/excel/codifiche.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisie.Turcanu\Documents\GitHub\Dashboard_PAC\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1008464E-66AA-4FA6-8972-C06323585C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57052A25-40F2-473B-BFCF-9BC1C155F681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A1CEDA-2ADC-4F0B-9FB2-96AB30E61F9D}"/>
   </bookViews>
@@ -317,18 +317,6 @@
     <t>ISIN</t>
   </si>
   <si>
-    <t>IT0005066896</t>
-  </si>
-  <si>
-    <t>IT0005066912</t>
-  </si>
-  <si>
-    <t>IT0005066938</t>
-  </si>
-  <si>
-    <t>IT0005066953</t>
-  </si>
-  <si>
     <t>FAMIGLIA</t>
   </si>
   <si>
@@ -488,9 +476,6 @@
     <t>IE00B13C3B10</t>
   </si>
   <si>
-    <t>IT0005066870</t>
-  </si>
-  <si>
     <t>Mediolanum Multi Asset ESG Selection L</t>
   </si>
   <si>
@@ -642,6 +627,21 @@
   </si>
   <si>
     <t>MBB Premium Coupon Collection LH</t>
+  </si>
+  <si>
+    <t>IT0000386166</t>
+  </si>
+  <si>
+    <t>IT0004966971</t>
+  </si>
+  <si>
+    <t>IT0001178125</t>
+  </si>
+  <si>
+    <t>IT0004931157</t>
+  </si>
+  <si>
+    <t>IT0001046892</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3B7343-E6BD-4A0B-831B-291FCE4ABACD}">
   <dimension ref="A1:C99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1013,15 +1015,15 @@
     <col min="3" max="3" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1029,10 +1031,10 @@
         <v>43</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1040,10 +1042,10 @@
         <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1051,10 +1053,10 @@
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1062,10 +1064,10 @@
         <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1073,10 +1075,10 @@
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1084,10 +1086,10 @@
         <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1095,10 +1097,10 @@
         <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1106,10 +1108,10 @@
         <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1117,10 +1119,10 @@
         <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1128,10 +1130,10 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
         <v>99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1139,10 +1141,10 @@
         <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1150,10 +1152,10 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1161,10 +1163,10 @@
         <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1172,10 +1174,10 @@
         <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1183,10 +1185,10 @@
         <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -1194,10 +1196,10 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -1205,10 +1207,10 @@
         <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -1216,10 +1218,10 @@
         <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1227,10 +1229,10 @@
         <v>58</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -1238,10 +1240,10 @@
         <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1249,10 +1251,10 @@
         <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1260,10 +1262,10 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -1271,21 +1273,21 @@
         <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B25" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1293,10 +1295,10 @@
         <v>83</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1304,10 +1306,10 @@
         <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1315,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="B28" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C28" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,10 +1328,10 @@
         <v>3</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1337,10 +1339,10 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1348,10 +1350,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C31" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -1359,10 +1361,10 @@
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -1370,10 +1372,10 @@
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1381,10 +1383,10 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1392,10 +1394,10 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C35" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1403,10 +1405,10 @@
         <v>55</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C36" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1414,10 +1416,10 @@
         <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C37" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1425,10 +1427,10 @@
         <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,10 +1438,10 @@
         <v>41</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C39" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1447,10 +1449,10 @@
         <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C40" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1458,10 +1460,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1469,10 +1471,10 @@
         <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C42" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1480,10 +1482,10 @@
         <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C43" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1491,10 +1493,10 @@
         <v>15</v>
       </c>
       <c r="B44" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1502,10 +1504,10 @@
         <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1513,10 +1515,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1524,10 +1526,10 @@
         <v>70</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1535,10 +1537,10 @@
         <v>17</v>
       </c>
       <c r="B48" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C48" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1546,10 +1548,10 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1557,10 +1559,10 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C50" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,10 +1570,10 @@
         <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1579,10 +1581,10 @@
         <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C52" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1590,10 +1592,10 @@
         <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1601,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1612,10 +1614,10 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C55" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,10 +1625,10 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1634,10 +1636,10 @@
         <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1645,10 +1647,10 @@
         <v>88</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C58" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1656,10 +1658,10 @@
         <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1667,10 +1669,10 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1678,10 +1680,10 @@
         <v>46</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1689,10 +1691,10 @@
         <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,10 +1702,10 @@
         <v>53</v>
       </c>
       <c r="B63" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1711,10 +1713,10 @@
         <v>54</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C64" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1722,10 +1724,10 @@
         <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1733,10 +1735,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1744,10 +1746,10 @@
         <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1755,10 +1757,10 @@
         <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C68" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1766,10 +1768,10 @@
         <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C69" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1777,10 +1779,10 @@
         <v>81</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1788,10 +1790,10 @@
         <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C71" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1799,10 +1801,10 @@
         <v>20</v>
       </c>
       <c r="B72" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1810,10 +1812,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1821,10 +1823,10 @@
         <v>11</v>
       </c>
       <c r="B74" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,10 +1834,10 @@
         <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1843,10 +1845,10 @@
         <v>27</v>
       </c>
       <c r="B76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1854,10 +1856,10 @@
         <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C77" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,10 +1867,10 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1876,10 +1878,10 @@
         <v>2</v>
       </c>
       <c r="B79" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C79" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,10 +1889,10 @@
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1898,10 +1900,10 @@
         <v>13</v>
       </c>
       <c r="B81" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1909,10 +1911,10 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C82" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1920,10 +1922,10 @@
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C83" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1931,10 +1933,10 @@
         <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C84" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1942,10 +1944,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C85" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1953,10 +1955,10 @@
         <v>66</v>
       </c>
       <c r="B86" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,10 +1966,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1975,10 +1977,10 @@
         <v>25</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C88" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1986,10 +1988,10 @@
         <v>76</v>
       </c>
       <c r="B89" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1997,10 +1999,10 @@
         <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2008,10 +2010,10 @@
         <v>50</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C91" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2019,21 +2021,21 @@
         <v>51</v>
       </c>
       <c r="B92" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C93" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2041,10 +2043,10 @@
         <v>56</v>
       </c>
       <c r="B94" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2052,54 +2054,54 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>198</v>
+      </c>
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="B96" t="s">
-        <v>100</v>
-      </c>
       <c r="C96" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C97" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>95</v>
+        <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C98" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/excel/codifiche.xlsx
+++ b/excel/codifiche.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dionisie.Turcanu\Documents\GitHub\Dashboard_PAC\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57052A25-40F2-473B-BFCF-9BC1C155F681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D88529F-173F-4E1C-A030-18394D6DD4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A1CEDA-2ADC-4F0B-9FB2-96AB30E61F9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{57A1CEDA-2ADC-4F0B-9FB2-96AB30E61F9D}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio2" sheetId="4" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="202">
   <si>
     <t>IE00BYVXRV56</t>
   </si>
@@ -1005,7 +1006,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2107,4 +2108,52 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB9CC28-0FE4-4B14-8766-456E8D37B1BA}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F1">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>